--- a/commands.xlsx
+++ b/commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anonim/Desktop/vkbot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anonim/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B34742-F30D-EB4C-9ED3-A16D058CFD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AEFBCB-AC28-D644-BF62-905343EA5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="980" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
   <si>
     <t>Command</t>
   </si>
@@ -52,15 +52,24 @@
     <t>Null</t>
   </si>
   <si>
+    <t>nigger, niggers, негр, негры, nigga, нигер, нигеры, ниггеры, нига, арап, черножопые, черножопый, ниги</t>
+  </si>
+  <si>
     <t>audio, -203967942, 456239017</t>
   </si>
   <si>
+    <t>girls, pussy, sex, girls, vagina, ass, tits, boobies, девушки, грудь, сиськи, вагина, жопа, титьки, тян, тни</t>
+  </si>
+  <si>
     <t>photo, -203967942, 457239081</t>
   </si>
   <si>
     <t>бог, боже</t>
   </si>
   <si>
+    <t>photo, -203967942, 457239082</t>
+  </si>
+  <si>
     <t>ислам</t>
   </si>
   <si>
@@ -82,9 +91,15 @@
     <t>бунд, бунт</t>
   </si>
   <si>
+    <t>photo, -203967942, 457239069</t>
+  </si>
+  <si>
     <t>маэстро, понасенков</t>
   </si>
   <si>
+    <t>photo, 203967942, 457239070</t>
+  </si>
+  <si>
     <t>либерах, либерал</t>
   </si>
   <si>
@@ -154,7 +169,7 @@
     <t>жид, евре</t>
   </si>
   <si>
-    <t>video , 2070889, 171794808</t>
+    <t>video, 2070889, 171794808</t>
   </si>
   <si>
     <t>a, а</t>
@@ -214,41 +229,143 @@
     <t>1000-7=?;Мы считали дырки в сыре, 2+3=?;Ломай цирклетку;Ладно 5 звёзд поставишь, мне на работу пора;Заходит улитка в бар;zx тычка пауза с</t>
   </si>
   <si>
+    <t>doc, -203967942, 594128617</t>
+  </si>
+  <si>
     <t>si</t>
   </si>
   <si>
     <t>sosi</t>
   </si>
   <si>
-    <t>photo, -203967942, 457239082</t>
-  </si>
-  <si>
-    <t>photo, -203967942, 457239069</t>
-  </si>
-  <si>
-    <t>photo, 203967942, 457239070</t>
-  </si>
-  <si>
-    <t>nigger, niggers, негр, негры, nigga, нигер, нигеры, ниггеры, нига, арап, черножопые, черножопый, ниги</t>
-  </si>
-  <si>
-    <t>girls, pussy, sex, girls, vagina, ass, tits, boobies, девушки, грудь, сиськи, вагина, жопа, титьки, тян, тни</t>
-  </si>
-  <si>
-    <t>doc, -203967942, 594128617</t>
+    <t>бот апи сменился?</t>
+  </si>
+  <si>
+    <t>Проверка текста и фото</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>реклама</t>
+  </si>
+  <si>
+    <t>подписываемся https://t.me/recipiestipsquotes</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>фистинг, fisting, фистинги, фистинга, фистеры, фистанутые, fisters</t>
+  </si>
+  <si>
+    <t>photo, -203967942, 457239094</t>
+  </si>
+  <si>
+    <t>с днюхой, с др</t>
+  </si>
+  <si>
+    <t>@droor с Днюхой тебя, ежжи</t>
+  </si>
+  <si>
+    <t>photo, -203967942, 457239095</t>
+  </si>
+  <si>
+    <t>юрасик</t>
+  </si>
+  <si>
+    <t>photo, -203967942, 457239096</t>
+  </si>
+  <si>
+    <t>сирия, сирию</t>
+  </si>
+  <si>
+    <t>audio, -203967942, 456239018</t>
+  </si>
+  <si>
+    <t>бот хелп</t>
+  </si>
+  <si>
+    <t>wall, -203967942, 5</t>
+  </si>
+  <si>
+    <t>бот дзен</t>
+  </si>
+  <si>
+    <t>wall, -191321863, 1256</t>
+  </si>
+  <si>
+    <t>лол, спс, пж</t>
+  </si>
+  <si>
+    <t>photo, -203967942, 457239098</t>
+  </si>
+  <si>
+    <t>илья с др</t>
+  </si>
+  <si>
+    <t>@ssda24</t>
+  </si>
+  <si>
+    <t>photo, -203967942, 457239182</t>
+  </si>
+  <si>
+    <t>реклама2</t>
+  </si>
+  <si>
+    <t>подписываемся https://t.me/fedorov0</t>
+  </si>
+  <si>
+    <t>мойша с др</t>
+  </si>
+  <si>
+    <t>photo, -203967942, 457239181</t>
+  </si>
+  <si>
+    <t>база, based</t>
+  </si>
+  <si>
+    <t>photo, -203967942, 457239183</t>
+  </si>
+  <si>
+    <t>арина с др</t>
+  </si>
+  <si>
+    <t>@gorakievskaya</t>
+  </si>
+  <si>
+    <t>никита с др</t>
+  </si>
+  <si>
+    <t>photo, -203967942, 457239184</t>
+  </si>
+  <si>
+    <t>photo, -203967942, 457239185</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,8 +388,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,13 +766,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -671,13 +789,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -694,13 +812,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>222982204</v>
@@ -717,13 +835,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>92386365</v>
@@ -740,10 +858,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -755,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -763,13 +881,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -786,13 +904,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -809,13 +927,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -832,13 +950,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -855,13 +973,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -878,13 +996,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -901,13 +1019,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -924,13 +1042,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -947,13 +1065,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -970,13 +1088,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -993,13 +1111,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1016,13 +1134,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1039,13 +1157,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1062,13 +1180,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1085,13 +1203,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1108,13 +1226,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1131,10 +1249,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1154,10 +1272,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1177,10 +1295,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1200,10 +1318,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1223,10 +1341,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1249,7 +1367,7 @@
         <v>993</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1269,10 +1387,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1292,10 +1410,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1315,13 +1433,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1338,10 +1456,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1357,6 +1475,351 @@
       </c>
       <c r="G33" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
